--- a/Dane/classes.xlsx
+++ b/Dane/classes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia\5 semestr\BO2\BO_Projekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studia\5 semestr\BO2\BO_Projekt\Dane\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFF62695-4D24-4446-BBD6-5FF280A1195A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBE5271-76F7-4EAD-B5F7-EF53BC2E7B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="2280" windowWidth="21600" windowHeight="11295" xr2:uid="{6CBD3164-DA43-42D9-9023-4DFEE80A25AD}"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="21600" windowHeight="11295" xr2:uid="{6CBD3164-DA43-42D9-9023-4DFEE80A25AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Nr Sali</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
   </si>
 </sst>
 </file>
@@ -391,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0BDFB81-6CEE-43CE-BCC4-2A9E0FAB8C39}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,21 +418,196 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>4</v>
       </c>
     </row>
